--- a/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Tlathet Douairs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D58FE-2199-4403-A4DB-F19A13967E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BDAD57-10B5-4778-B108-CA248B39C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -133,6 +133,156 @@
       </rPr>
       <t>2026</t>
     </r>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>15/21</t>
+  </si>
+  <si>
+    <t>2025177558</t>
+  </si>
+  <si>
+    <t>NB(551/2025)</t>
+  </si>
+  <si>
+    <t>Zahar djamel</t>
+  </si>
+  <si>
+    <t>2025177837</t>
+  </si>
+  <si>
+    <t>Bettouche lakhdar</t>
+  </si>
+  <si>
+    <t>NB(338/2025)</t>
+  </si>
+  <si>
+    <t>2025177836</t>
+  </si>
+  <si>
+    <t>Bitam boumedien</t>
+  </si>
+  <si>
+    <t>NB(355/2025)</t>
+  </si>
+  <si>
+    <t>2025177329</t>
+  </si>
+  <si>
+    <t>Kouidri med</t>
+  </si>
+  <si>
+    <t>2025177522</t>
+  </si>
+  <si>
+    <t>Licir med alaa eddine</t>
+  </si>
+  <si>
+    <t>NB(354/2025)</t>
+  </si>
+  <si>
+    <t>2025177328</t>
+  </si>
+  <si>
+    <t>Kouidri billel</t>
+  </si>
+  <si>
+    <t>NB(325/2025)</t>
+  </si>
+  <si>
+    <t>NB(205/2025)</t>
+  </si>
+  <si>
+    <t>2025177327</t>
+  </si>
+  <si>
+    <t>Semicha hamza</t>
+  </si>
+  <si>
+    <t>NB(333/2025)</t>
+  </si>
+  <si>
+    <t>2025177326</t>
+  </si>
+  <si>
+    <t>Belmihoub aissa</t>
+  </si>
+  <si>
+    <t>NB(300/2025)</t>
+  </si>
+  <si>
+    <t>2025177555</t>
+  </si>
+  <si>
+    <t>Berrabah bachir</t>
+  </si>
+  <si>
+    <t>NB(213/2025)</t>
+  </si>
+  <si>
+    <t>2025177835</t>
+  </si>
+  <si>
+    <t>Mosbah bakhta</t>
+  </si>
+  <si>
+    <t>NB(362/2025)</t>
+  </si>
+  <si>
+    <t>2025177838</t>
+  </si>
+  <si>
+    <t>Belmihoub brahim</t>
+  </si>
+  <si>
+    <t>NB(290/2025)</t>
+  </si>
+  <si>
+    <t>2025177834</t>
+  </si>
+  <si>
+    <t>NB(028/2026)</t>
+  </si>
+  <si>
+    <t>Yamani yamena</t>
+  </si>
+  <si>
+    <t>2025177840</t>
+  </si>
+  <si>
+    <t>Berabah abdelmalek</t>
+  </si>
+  <si>
+    <t>NB(293/2025)</t>
+  </si>
+  <si>
+    <t>2025177839</t>
+  </si>
+  <si>
+    <t>Douis cherifa</t>
+  </si>
+  <si>
+    <t>NB(299/2025)</t>
+  </si>
+  <si>
+    <t>2025177832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zidi abderezzak </t>
+  </si>
+  <si>
+    <t>NB(337/2025)</t>
+  </si>
+  <si>
+    <t>2025177833</t>
+  </si>
+  <si>
+    <t>NB(328/2025)</t>
+  </si>
+  <si>
+    <t>Bettouche aek</t>
   </si>
 </sst>
 </file>
@@ -289,7 +439,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -367,6 +517,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Euro" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -393,15 +546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:colOff>1152525</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -416,8 +569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="638175" y="1352550"/>
-          <a:ext cx="4029075" cy="7562850"/>
+          <a:off x="609600" y="4943475"/>
+          <a:ext cx="4048125" cy="3962400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -734,7 +887,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +959,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="16">
         <f>SUMIF(F7:F136,"NB*",G7:G136)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -846,7 +999,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="18">
         <f ca="1">SUM(K2:K4)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,15 +1033,27 @@
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="15">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -898,15 +1063,27 @@
         <f t="shared" ref="A8:A71" si="0">+A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="15">
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -916,15 +1093,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -934,15 +1123,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="15">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -952,15 +1153,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="15">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -970,15 +1183,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="G12" s="15">
         <v>1</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -988,15 +1213,27 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="15">
         <v>1</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -1006,15 +1243,27 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="15">
         <v>1</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
@@ -1023,15 +1272,27 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="G15" s="15">
         <v>1</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
@@ -1040,15 +1301,27 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="G16" s="15">
         <v>1</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
@@ -1057,15 +1330,27 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="G17" s="15">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
@@ -1074,15 +1359,27 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="15">
         <v>1</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
@@ -1091,15 +1388,27 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="15">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
@@ -1108,15 +1417,27 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="19"/>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" s="15">
         <v>1</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
@@ -1125,15 +1446,27 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="19"/>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="G21" s="15">
         <v>1</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
@@ -1142,15 +1475,27 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="19"/>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="12">
+        <v>46040</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="G22" s="15">
         <v>1</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
@@ -2247,9 +2592,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H77">
-    <sortCondition ref="E7:E77"/>
-    <sortCondition ref="D7:D77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H22">
+    <sortCondition ref="E7:E22"/>
+    <sortCondition ref="D7:D22"/>
   </sortState>
   <mergeCells count="11">
     <mergeCell ref="A4:F4"/>

--- a/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Tlathet Douairs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BDAD57-10B5-4778-B108-CA248B39C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FE28D-89A2-41F6-A979-B24A5E8170CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>Kouidri med</t>
   </si>
   <si>
-    <t>2025177522</t>
-  </si>
-  <si>
     <t>Licir med alaa eddine</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Bettouche aek</t>
+  </si>
+  <si>
+    <t>2025177552</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -516,9 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -887,7 +884,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,19 +1037,19 @@
         <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="12">
         <v>46040</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>43</v>
+      <c r="H7" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1070,19 +1067,19 @@
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="12">
         <v>46040</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1100,19 +1097,19 @@
         <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="12">
         <v>46040</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>36</v>
+      <c r="H9" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1136,7 +1133,7 @@
         <v>46040</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="15">
         <v>1</v>
@@ -1160,19 +1157,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E11" s="12">
         <v>46040</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1190,19 +1187,19 @@
         <v>20</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="12">
         <v>46040</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>46</v>
+      <c r="H12" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1250,19 +1247,19 @@
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="12">
         <v>46040</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="15">
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1279,19 +1276,19 @@
         <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="12">
         <v>46040</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1308,19 +1305,19 @@
         <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12">
         <v>46040</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1337,19 +1334,19 @@
         <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="12">
         <v>46040</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="15">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1424,19 +1421,19 @@
         <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="12">
         <v>46040</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="15">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1453,19 +1450,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="12">
         <v>46040</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="15">
         <v>1</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>61</v>
+      <c r="H21" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1482,19 +1479,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="12">
         <v>46040</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="15">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>

--- a/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Tlathet Douairs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FE28D-89A2-41F6-A979-B24A5E8170CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14291F21-5F5B-4BD3-B088-BC377BBDE2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,8 +544,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -566,8 +566,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="609600" y="4943475"/>
-          <a:ext cx="4048125" cy="3962400"/>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="4048125" cy="4524375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -883,8 +883,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F46" sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
